--- a/Netmiko/cisco_systeeminfo.xlsx
+++ b/Netmiko/cisco_systeeminfo.xlsx
@@ -466,7 +466,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45973.54979341425</v>
+        <v>46043.04213006421</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -480,7 +480,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CSR1kv uptime is 22 minutes</t>
+          <t>CSR1kv uptime is 8 hours, 47 minutes</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
